--- a/paperwork/Tareas Sprint1.xlsx
+++ b/paperwork/Tareas Sprint1.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\ParentLink\ParentLink\paperwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA01D2-4EFE-403C-B349-D1600624688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B405CD6-1349-41C8-AAD2-8C880EE31E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sprint 1'!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>Tarea</t>
   </si>
@@ -132,12 +133,138 @@
   <si>
     <t>Creación inicial de los archivos React + montaje del Router</t>
   </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>Diagrama Entidad Relacion</t>
+  </si>
+  <si>
+    <t>Montar estructura en Sprint Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla Usuario:
+.- ID
+</t>
+  </si>
+  <si>
+    <t>Tabla Hijos</t>
+  </si>
+  <si>
+    <t>Tabla Evento</t>
+  </si>
+  <si>
+    <t>Tabla Ciudad</t>
+  </si>
+  <si>
+    <t>Tabla Rango de Edad</t>
+  </si>
+  <si>
+    <t>Tabla Reseñas</t>
+  </si>
+  <si>
+    <t>Tabla Intereses</t>
+  </si>
+  <si>
+    <t>Formularios</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Header (Frase gancho)
+ .- Fotografia.
+ .- Descubre ParentLin</t>
+  </si>
+  <si>
+    <t>Eventos (Dos sesiones)
+.- Filtro.
+.- Tarjeta de Eventos.</t>
+  </si>
+  <si>
+    <t>Sesiones de Recompensas.
+.- Texto.
+.- Link a posibles candidatos a patocinadores</t>
+  </si>
+  <si>
+    <t>Reseñas:
+.- Tarjeta de Reseñas.</t>
+  </si>
+  <si>
+    <t>Footer.
+.- Acerca de… (ODS)
+.- Contactos.</t>
+  </si>
+  <si>
+    <t>Formulario de Registro de Usuario</t>
+  </si>
+  <si>
+    <t>Formulario de Ingreso y validacion de contraseña</t>
+  </si>
+  <si>
+    <t>Formulario de Inscripcion en Evento</t>
+  </si>
+  <si>
+    <t>Fomulario de Registro de Creacion de Evento</t>
+  </si>
+  <si>
+    <t>Fucionalidades de Usuario Registrado</t>
+  </si>
+  <si>
+    <t>Fomulario de modificacion de datos de usuario</t>
+  </si>
+  <si>
+    <t>Menu
+.- Sesion desconectada.
+.- Sesion iniciada</t>
+  </si>
+  <si>
+    <t>Pagina de sesion iniciada</t>
+  </si>
+  <si>
+    <t>Opciones de:
+.- Eventos en los que esta inscrito. (Con la opcion de darte de baja del evento)
+.- Eventos disponibles.</t>
+  </si>
+  <si>
+    <t>Pagina de ayuda…..</t>
+  </si>
+  <si>
+    <t>Como Funciona?</t>
+  </si>
+  <si>
+    <t>Incorporar la Seguridad a la BD</t>
+  </si>
+  <si>
+    <t>Sub - Tarea</t>
+  </si>
+  <si>
+    <t>Seguridad en Sprin Boot JWT</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Myroslav Palko</t>
+  </si>
+  <si>
+    <t>Validacion de nombre de usuario</t>
+  </si>
+  <si>
+    <t>Validacion de contraseña</t>
+  </si>
+  <si>
+    <t>Seguiminto y documentacion</t>
+  </si>
+  <si>
+    <t>Montar tareas en GibHub Project</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -166,6 +293,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +359,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +609,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5875,4 +6048,343 @@
   <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF54E59-DB66-4BB2-B18C-30AF3AD6EA9A}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.3046875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" customWidth="1"/>
+    <col min="4" max="4" width="12.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45667</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="49.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="23">
+        <v>45670</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9">
+        <v>45670</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="62.15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A27:A29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/paperwork/Tareas Sprint1.xlsx
+++ b/paperwork/Tareas Sprint1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\ParentLink\ParentLink\paperwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B405CD6-1349-41C8-AAD2-8C880EE31E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91332283-27A9-4CA0-82EC-0BE54C9CBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Implementar los componentes básicos de la HOME en React y configuren el enrutamiento con React Router para futuras pantallas. Esto asegura una base sólida.</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrollo de la API-REST con los endpoints CRUD </t>
-  </si>
-  <si>
     <t>Definición del PMV (prod. mín. viable)</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Montar tareas en GibHub Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo Basico de la API-REST con los endpoints CRUD </t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,9 +363,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -375,9 +372,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -385,10 +379,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -743,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -755,10 +752,10 @@
         <v>45664</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -786,10 +783,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -827,13 +824,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8">
         <v>45666</v>
@@ -866,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -878,7 +875,7 @@
         <v>45666</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -907,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="8">
         <v>45666</v>
@@ -974,17 +971,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1013,17 +1010,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1052,10 +1049,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -1068,13 +1065,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="9">
         <v>45666</v>
@@ -1087,13 +1084,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="11">
         <v>45664</v>
@@ -1106,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>6</v>
@@ -6055,37 +6052,37 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.3046875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.3046875" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.4609375" customWidth="1"/>
     <col min="4" max="4" width="12.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="9">
         <v>45667</v>
@@ -6095,9 +6092,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9">
         <v>45670</v>
@@ -6107,9 +6104,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9">
         <v>45670</v>
@@ -6119,9 +6116,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="21"/>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9">
         <v>45670</v>
@@ -6131,9 +6128,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="21"/>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9">
         <v>45670</v>
@@ -6143,9 +6140,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9">
         <v>45670</v>
@@ -6155,9 +6152,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9">
         <v>45670</v>
@@ -6167,9 +6164,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9">
         <v>45670</v>
@@ -6179,9 +6176,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="9">
         <v>45670</v>
@@ -6191,43 +6188,43 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>62</v>
+      <c r="A11" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>57</v>
+      <c r="A12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="9">
         <v>45670</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9">
         <v>45670</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="9">
         <v>45670</v>
@@ -6237,21 +6234,21 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="9">
         <v>45670</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="9">
         <v>45670</v>
@@ -6261,9 +6258,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="9">
         <v>45670</v>
@@ -6273,13 +6270,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>45670</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -6291,11 +6288,11 @@
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>52</v>
+      <c r="A20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="9">
         <v>45670</v>
@@ -6305,76 +6302,76 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15" t="s">
-        <v>67</v>
+      <c r="A21" s="21"/>
+      <c r="B21" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15" t="s">
-        <v>68</v>
+      <c r="A22" s="21"/>
+      <c r="B22" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="15" t="s">
         <v>54</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
-      <c r="B28" s="14" t="s">
-        <v>53</v>
+      <c r="B28" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
-      <c r="B29" s="14" t="s">
-        <v>56</v>
+      <c r="B29" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="31" spans="1:4" ht="62.15" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
